--- a/templates/PipelineWorksheetMASTER.xlsx
+++ b/templates/PipelineWorksheetMASTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\apps\production\pipeline_launcher\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\projects\alindsay\Projects\ngs-pipeline-launcher\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F27C2A1B-E019-4707-BDFE-421A8BD9448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7684F8F-6CA5-4712-A535-CD8AC323171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="3945" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PipelineWorksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="140">
   <si>
     <t>[Header]</t>
   </si>
@@ -64,9 +64,6 @@
     <t>/nfs/APL_Genomics/apps/production/covid/pl_ncov_auto_V7.py</t>
   </si>
   <si>
-    <t>[Samples]</t>
-  </si>
-  <si>
     <t>Barcode</t>
   </si>
   <si>
@@ -440,6 +437,9 @@
   </si>
   <si>
     <t># e.g., /nfs/APL_Genomics/230711_N_I_063/</t>
+  </si>
+  <si>
+    <t>bash CPO_V1.sh --profile singularity --input 231006_N_I_E_coli_and_others_002_Pool_1 --outdir 231006_N_I_E_coli_and_others_002_Pool_1 --platform illumina --run CPO111</t>
   </si>
 </sst>
 </file>
@@ -1007,15 +1007,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="7" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1116,6 +1107,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1161,7 +1161,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1197,11 +1197,6 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1210,14 +1205,17 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,8 +1233,9 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1559,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1593,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1618,21 +1617,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+    <row r="6" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -1641,108 +1640,108 @@
         <v>11</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="20" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -1764,874 +1763,868 @@
     </row>
     <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="18"/>
     </row>
     <row r="31" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>1</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
+        <v>2</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="29">
+        <v>3</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="29">
+        <v>4</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
+        <v>5</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="29">
+        <v>6</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29">
+        <v>7</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29">
+        <v>8</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29">
+        <v>9</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29">
+        <v>10</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
+        <v>11</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29">
+        <v>12</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
+        <v>13</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29">
+        <v>14</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="29">
+        <v>15</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>16</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="29">
+        <v>17</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="29">
+        <v>18</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="29">
+        <v>19</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="29">
+        <v>20</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29">
+        <v>21</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="29">
+        <v>22</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="29">
+        <v>23</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="29">
+        <v>24</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="29">
+        <v>25</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="29">
+        <v>26</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="29">
+        <v>27</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29">
+        <v>28</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="29">
+        <v>29</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="29">
+        <v>30</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="29">
+        <v>31</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="29">
         <v>32</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
-        <v>1</v>
-      </c>
-      <c r="B36" s="31" t="s">
+      <c r="B66" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="29">
+        <v>33</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="29">
+        <v>34</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="29">
+        <v>35</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="29">
+        <v>36</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="29">
+        <v>37</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="29">
+        <v>38</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="29">
+        <v>39</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="29">
+        <v>40</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="29">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
-        <v>2</v>
-      </c>
-      <c r="B37" s="33" t="s">
+      <c r="B75" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="29">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
-        <v>3</v>
-      </c>
-      <c r="B38" s="33" t="s">
+      <c r="B76" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="29">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
-        <v>4</v>
-      </c>
-      <c r="B39" s="33" t="s">
+      <c r="B77" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="29">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32">
-        <v>5</v>
-      </c>
-      <c r="B40" s="33" t="s">
+      <c r="B78" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="29">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
-        <v>6</v>
-      </c>
-      <c r="B41" s="33" t="s">
+      <c r="B79" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="29">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
-        <v>7</v>
-      </c>
-      <c r="B42" s="33" t="s">
+      <c r="B80" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="29">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
-        <v>8</v>
-      </c>
-      <c r="B43" s="33" t="s">
+      <c r="B81" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="29">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
-        <v>9</v>
-      </c>
-      <c r="B44" s="33" t="s">
+      <c r="B82" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="29">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32">
-        <v>10</v>
-      </c>
-      <c r="B45" s="33" t="s">
+      <c r="B83" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="29">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32">
-        <v>11</v>
-      </c>
-      <c r="B46" s="33" t="s">
+      <c r="B84" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="29">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32">
-        <v>12</v>
-      </c>
-      <c r="B47" s="33" t="s">
+      <c r="B85" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="29">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32">
-        <v>13</v>
-      </c>
-      <c r="B48" s="33" t="s">
+      <c r="B86" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="29">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32">
-        <v>14</v>
-      </c>
-      <c r="B49" s="33" t="s">
+      <c r="B87" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="29">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32">
-        <v>15</v>
-      </c>
-      <c r="B50" s="33" t="s">
+      <c r="B88" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="29">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32">
-        <v>16</v>
-      </c>
-      <c r="B51" s="33" t="s">
+      <c r="B89" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="29">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32">
-        <v>17</v>
-      </c>
-      <c r="B52" s="33" t="s">
+      <c r="B90" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="29">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32">
-        <v>18</v>
-      </c>
-      <c r="B53" s="33" t="s">
+      <c r="B91" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="29">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
-        <v>19</v>
-      </c>
-      <c r="B54" s="33" t="s">
+      <c r="B92" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="29">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="32">
-        <v>20</v>
-      </c>
-      <c r="B55" s="33" t="s">
+      <c r="B93" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="29">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32">
-        <v>21</v>
-      </c>
-      <c r="B56" s="33" t="s">
+      <c r="B94" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="29">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32">
-        <v>22</v>
-      </c>
-      <c r="B57" s="33" t="s">
+      <c r="B95" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="29">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32">
-        <v>23</v>
-      </c>
-      <c r="B58" s="33" t="s">
+      <c r="B96" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="29">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32">
-        <v>24</v>
-      </c>
-      <c r="B59" s="33" t="s">
+      <c r="B97" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="29">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32">
-        <v>25</v>
-      </c>
-      <c r="B60" s="33" t="s">
+      <c r="B98" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="29">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="32">
-        <v>26</v>
-      </c>
-      <c r="B61" s="33" t="s">
+      <c r="B99" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="29">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="32">
-        <v>27</v>
-      </c>
-      <c r="B62" s="33" t="s">
+      <c r="B100" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="29">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="32">
-        <v>28</v>
-      </c>
-      <c r="B63" s="33" t="s">
+      <c r="B101" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="29">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32">
-        <v>29</v>
-      </c>
-      <c r="B64" s="33" t="s">
+      <c r="B102" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="29">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32">
-        <v>30</v>
-      </c>
-      <c r="B65" s="33" t="s">
+      <c r="B103" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="29">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32">
-        <v>31</v>
-      </c>
-      <c r="B66" s="33" t="s">
+      <c r="B104" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="29">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="32">
-        <v>32</v>
-      </c>
-      <c r="B67" s="33" t="s">
+      <c r="B105" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="29">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32">
-        <v>33</v>
-      </c>
-      <c r="B68" s="33" t="s">
+      <c r="B106" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="29">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32">
-        <v>34</v>
-      </c>
-      <c r="B69" s="33" t="s">
+      <c r="B107" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="29">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32">
-        <v>35</v>
-      </c>
-      <c r="B70" s="33" t="s">
+      <c r="B108" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="29">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="32">
-        <v>36</v>
-      </c>
-      <c r="B71" s="33" t="s">
+      <c r="B109" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="29">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="32">
-        <v>37</v>
-      </c>
-      <c r="B72" s="33" t="s">
+      <c r="B110" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="29">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="32">
-        <v>38</v>
-      </c>
-      <c r="B73" s="33" t="s">
+      <c r="B111" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="29">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32">
-        <v>39</v>
-      </c>
-      <c r="B74" s="33" t="s">
+      <c r="B112" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="29">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="32">
-        <v>40</v>
-      </c>
-      <c r="B75" s="33" t="s">
+      <c r="B113" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="29">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32">
-        <v>41</v>
-      </c>
-      <c r="B76" s="33" t="s">
+      <c r="B114" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="29">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="32">
-        <v>42</v>
-      </c>
-      <c r="B77" s="33" t="s">
+      <c r="B115" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="29">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="32">
-        <v>43</v>
-      </c>
-      <c r="B78" s="33" t="s">
+      <c r="B116" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="29">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="32">
-        <v>44</v>
-      </c>
-      <c r="B79" s="33" t="s">
+      <c r="B117" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="29">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="32">
-        <v>45</v>
-      </c>
-      <c r="B80" s="33" t="s">
+      <c r="B118" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="29">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="32">
-        <v>46</v>
-      </c>
-      <c r="B81" s="33" t="s">
+      <c r="B119" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="29">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="32">
-        <v>47</v>
-      </c>
-      <c r="B82" s="33" t="s">
+      <c r="B120" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="29">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="32">
-        <v>48</v>
-      </c>
-      <c r="B83" s="33" t="s">
+      <c r="B121" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="29">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32">
-        <v>49</v>
-      </c>
-      <c r="B84" s="33" t="s">
+      <c r="B122" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="29">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="32">
-        <v>50</v>
-      </c>
-      <c r="B85" s="33" t="s">
+      <c r="B123" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="29">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="32">
-        <v>51</v>
-      </c>
-      <c r="B86" s="33" t="s">
+      <c r="B124" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="29">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="32">
-        <v>52</v>
-      </c>
-      <c r="B87" s="33" t="s">
+      <c r="B125" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="29">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="32">
-        <v>53</v>
-      </c>
-      <c r="B88" s="33" t="s">
+      <c r="B126" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="29">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="32">
-        <v>54</v>
-      </c>
-      <c r="B89" s="33" t="s">
+      <c r="B127" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="29">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="32">
-        <v>55</v>
-      </c>
-      <c r="B90" s="33" t="s">
+      <c r="B128" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="29">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="32">
-        <v>56</v>
-      </c>
-      <c r="B91" s="33" t="s">
+      <c r="B129" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="31">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="32">
-        <v>57</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="32">
-        <v>58</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="32">
-        <v>59</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="32">
-        <v>60</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="32">
-        <v>61</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="32">
-        <v>62</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="32">
-        <v>63</v>
-      </c>
-      <c r="B98" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="32">
-        <v>64</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="32">
-        <v>65</v>
-      </c>
-      <c r="B100" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="32">
-        <v>66</v>
-      </c>
-      <c r="B101" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="32">
-        <v>67</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="32">
-        <v>68</v>
-      </c>
-      <c r="B103" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="32">
-        <v>69</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="32">
-        <v>70</v>
-      </c>
-      <c r="B105" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="32">
-        <v>71</v>
-      </c>
-      <c r="B106" s="33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="32">
-        <v>72</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="32">
-        <v>73</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="32">
-        <v>74</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="32">
-        <v>75</v>
-      </c>
-      <c r="B110" s="33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="32">
-        <v>76</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="32">
-        <v>77</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="32">
-        <v>78</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="32">
-        <v>79</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="32">
-        <v>80</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="32">
-        <v>81</v>
-      </c>
-      <c r="B116" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="32">
-        <v>82</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="32">
-        <v>83</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="32">
-        <v>84</v>
-      </c>
-      <c r="B119" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="32">
-        <v>85</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="32">
-        <v>86</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="32">
-        <v>87</v>
-      </c>
-      <c r="B122" s="33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="32">
-        <v>88</v>
-      </c>
-      <c r="B123" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="32">
-        <v>89</v>
-      </c>
-      <c r="B124" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="32">
-        <v>90</v>
-      </c>
-      <c r="B125" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="32">
-        <v>91</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="32">
-        <v>92</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="32">
-        <v>93</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="32">
-        <v>94</v>
-      </c>
-      <c r="B129" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="32">
-        <v>95</v>
-      </c>
-      <c r="B130" s="33" t="s">
+      <c r="B130" s="32" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="34">
-        <v>96</v>
-      </c>
-      <c r="B131" s="35" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
